--- a/VersionRecords/Version 5.1.5.2 20161209/版本Bug和特性计划及评审表v5.1.5.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.5.2 20161209/版本Bug和特性计划及评审表v5.1.5.2_马丁组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.1.5.2 20161209\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.5.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,12 +24,17 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -237,13 +237,44 @@
   </si>
   <si>
     <t>修正负责人</t>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>房态图连接新页面打开</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>徐文瑞</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -414,6 +445,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -630,7 +675,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,6 +704,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -932,8 +983,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="14">
     <cellStyle name="常规 2" xfId="7"/>
     <cellStyle name="常规 2 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="8"/>
@@ -943,8 +993,11 @@
     <cellStyle name="常规 5" xfId="11"/>
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -968,7 +1021,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -1317,36 +1370,36 @@
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4" style="47" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="48" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="47" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="48" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="48" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="47" customWidth="1"/>
-    <col min="14" max="14" width="11.375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="48" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="47" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="47" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="47" customWidth="1"/>
     <col min="15" max="15" width="10" style="48" customWidth="1"/>
     <col min="16" max="16" width="12.5" style="48" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="48" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="48" customWidth="1"/>
     <col min="18" max="18" width="12" style="49" customWidth="1"/>
     <col min="19" max="19" width="17" style="49" customWidth="1"/>
-    <col min="20" max="20" width="14.125" style="49" customWidth="1"/>
-    <col min="21" max="21" width="41.875" style="48" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" style="49" customWidth="1"/>
+    <col min="21" max="21" width="41.83203125" style="48" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="45" customFormat="1" ht="28">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -1411,31 +1464,59 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+    <row r="2" spans="1:22" s="46" customFormat="1" ht="15">
+      <c r="A2" s="51">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="54">
+        <v>42713</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="54">
+        <v>42713</v>
+      </c>
       <c r="K2" s="53"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
+      <c r="L2" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>74</v>
+      </c>
       <c r="O2" s="62"/>
       <c r="P2" s="54"/>
       <c r="Q2" s="62"/>
-      <c r="R2" s="59"/>
+      <c r="R2" s="59">
+        <v>6209</v>
+      </c>
       <c r="S2" s="59"/>
       <c r="T2" s="67"/>
       <c r="U2" s="70"/>
       <c r="V2" s="69"/>
     </row>
-    <row r="3" spans="1:22" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="46" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="51"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -1459,7 +1540,7 @@
       <c r="U3" s="68"/>
       <c r="V3" s="69"/>
     </row>
-    <row r="4" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
@@ -1483,7 +1564,7 @@
       <c r="U4" s="70"/>
       <c r="V4" s="69"/>
     </row>
-    <row r="5" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -1507,7 +1588,7 @@
       <c r="U5" s="70"/>
       <c r="V5" s="69"/>
     </row>
-    <row r="6" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -1531,7 +1612,7 @@
       <c r="U6" s="70"/>
       <c r="V6" s="69"/>
     </row>
-    <row r="7" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -1555,7 +1636,7 @@
       <c r="U7" s="70"/>
       <c r="V7" s="69"/>
     </row>
-    <row r="8" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -1579,7 +1660,7 @@
       <c r="U8" s="70"/>
       <c r="V8" s="69"/>
     </row>
-    <row r="9" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -1603,7 +1684,7 @@
       <c r="U9" s="70"/>
       <c r="V9" s="69"/>
     </row>
-    <row r="10" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -1627,7 +1708,7 @@
       <c r="U10" s="70"/>
       <c r="V10" s="69"/>
     </row>
-    <row r="11" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -1651,7 +1732,7 @@
       <c r="U11" s="70"/>
       <c r="V11" s="69"/>
     </row>
-    <row r="12" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -1675,7 +1756,7 @@
       <c r="U12" s="70"/>
       <c r="V12" s="69"/>
     </row>
-    <row r="13" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -1699,7 +1780,7 @@
       <c r="U13" s="70"/>
       <c r="V13" s="69"/>
     </row>
-    <row r="14" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -1723,7 +1804,7 @@
       <c r="U14" s="70"/>
       <c r="V14" s="69"/>
     </row>
-    <row r="15" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -1747,7 +1828,7 @@
       <c r="U15" s="70"/>
       <c r="V15" s="69"/>
     </row>
-    <row r="16" spans="1:22" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="46" customFormat="1" ht="15">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1771,7 +1852,7 @@
       <c r="U16" s="72"/>
       <c r="V16" s="69"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="15">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -1794,7 +1875,7 @@
       <c r="T17" s="59"/>
       <c r="U17" s="60"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="15">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -1817,7 +1898,7 @@
       <c r="T18" s="59"/>
       <c r="U18" s="60"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="15">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -1840,7 +1921,7 @@
       <c r="T19" s="59"/>
       <c r="U19" s="60"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="15">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -1863,7 +1944,7 @@
       <c r="T20" s="59"/>
       <c r="U20" s="70"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="15">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -1886,7 +1967,7 @@
       <c r="T21" s="59"/>
       <c r="U21" s="70"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="15">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -1909,7 +1990,7 @@
       <c r="T22" s="59"/>
       <c r="U22" s="70"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="15">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -1932,7 +2013,7 @@
       <c r="T23" s="73"/>
       <c r="U23" s="74"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="15">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -1955,7 +2036,7 @@
       <c r="T24" s="75"/>
       <c r="U24" s="74"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="15">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -1978,7 +2059,7 @@
       <c r="T25" s="76"/>
       <c r="U25" s="74"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
@@ -2001,7 +2082,7 @@
       <c r="T26" s="75"/>
       <c r="U26" s="74"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="15">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -2024,7 +2105,7 @@
       <c r="T27" s="75"/>
       <c r="U27" s="74"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="15">
       <c r="A28" s="51"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -2047,7 +2128,7 @@
       <c r="T28" s="71"/>
       <c r="U28" s="62"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="15">
       <c r="A29" s="51"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -2070,7 +2151,7 @@
       <c r="T29" s="59"/>
       <c r="U29" s="70"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="15">
       <c r="A30" s="51"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -2093,7 +2174,7 @@
       <c r="T30" s="59"/>
       <c r="U30" s="70"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="15">
       <c r="A31" s="51"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -2116,7 +2197,7 @@
       <c r="T31" s="59"/>
       <c r="U31" s="70"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="15">
       <c r="A32" s="51"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -2139,7 +2220,7 @@
       <c r="T32" s="75"/>
       <c r="U32" s="74"/>
     </row>
-    <row r="33" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="45">
       <c r="A33" s="51"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -2164,7 +2245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="51"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -2187,7 +2268,7 @@
       <c r="T34" s="59"/>
       <c r="U34" s="70"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -2210,7 +2291,7 @@
       <c r="T35" s="59"/>
       <c r="U35" s="70"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -2233,7 +2314,7 @@
       <c r="T36" s="59"/>
       <c r="U36" s="70"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="51"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -2256,7 +2337,7 @@
       <c r="T37" s="59"/>
       <c r="U37" s="70"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="51"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -2279,7 +2360,7 @@
       <c r="T38" s="59"/>
       <c r="U38" s="70"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="51"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -2302,7 +2383,7 @@
       <c r="T39" s="59"/>
       <c r="U39" s="70"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="15">
       <c r="A40" s="51"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -2325,7 +2406,7 @@
       <c r="T40" s="59"/>
       <c r="U40" s="70"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="15">
       <c r="A41" s="51"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -2348,7 +2429,7 @@
       <c r="T41" s="59"/>
       <c r="U41" s="70"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="15">
       <c r="A42" s="51"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -2371,7 +2452,7 @@
       <c r="T42" s="59"/>
       <c r="U42" s="70"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="15">
       <c r="A43" s="51"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -2394,7 +2475,7 @@
       <c r="T43" s="59"/>
       <c r="U43" s="70"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="15">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -2417,7 +2498,7 @@
       <c r="T44" s="71"/>
       <c r="U44" s="70"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="15">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -2440,7 +2521,7 @@
       <c r="T45" s="71"/>
       <c r="U45" s="70"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="15">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -2463,7 +2544,7 @@
       <c r="T46" s="59"/>
       <c r="U46" s="60"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="15">
       <c r="A47" s="51"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -2486,7 +2567,7 @@
       <c r="T47" s="59"/>
       <c r="U47" s="60"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="15">
       <c r="A48" s="51"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -2509,7 +2590,7 @@
       <c r="T48" s="59"/>
       <c r="U48" s="60"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="15">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -2532,7 +2613,7 @@
       <c r="T49" s="59"/>
       <c r="U49" s="60"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="15">
       <c r="A50" s="51"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -2555,7 +2636,7 @@
       <c r="T50" s="59"/>
       <c r="U50" s="60"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="15">
       <c r="A51" s="51"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -2578,7 +2659,7 @@
       <c r="T51" s="59"/>
       <c r="U51" s="60"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="15">
       <c r="A52" s="51"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -2601,7 +2682,7 @@
       <c r="T52" s="59"/>
       <c r="U52" s="60"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="15">
       <c r="A53" s="59"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
@@ -2624,7 +2705,7 @@
       <c r="T53" s="59"/>
       <c r="U53" s="60"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="15">
       <c r="A54" s="59"/>
       <c r="B54" s="59"/>
       <c r="C54" s="59"/>
@@ -2647,7 +2728,7 @@
       <c r="T54" s="59"/>
       <c r="U54" s="60"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="15">
       <c r="A55" s="59"/>
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
@@ -2670,7 +2751,7 @@
       <c r="T55" s="59"/>
       <c r="U55" s="60"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="15">
       <c r="A56" s="59"/>
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
@@ -2693,7 +2774,7 @@
       <c r="T56" s="59"/>
       <c r="U56" s="60"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="15">
       <c r="A57" s="59"/>
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
@@ -2716,7 +2797,7 @@
       <c r="T57" s="59"/>
       <c r="U57" s="60"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="15">
       <c r="A58" s="59"/>
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
@@ -2739,7 +2820,7 @@
       <c r="T58" s="59"/>
       <c r="U58" s="60"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="15">
       <c r="A59" s="59"/>
       <c r="B59" s="59"/>
       <c r="C59" s="59"/>
@@ -2762,7 +2843,7 @@
       <c r="T59" s="59"/>
       <c r="U59" s="60"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="15">
       <c r="A60" s="59"/>
       <c r="B60" s="59"/>
       <c r="C60" s="59"/>
@@ -2785,7 +2866,7 @@
       <c r="T60" s="59"/>
       <c r="U60" s="60"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="15">
       <c r="A61" s="59"/>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -2808,7 +2889,7 @@
       <c r="T61" s="59"/>
       <c r="U61" s="60"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="15">
       <c r="A62" s="59"/>
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
@@ -2831,7 +2912,7 @@
       <c r="T62" s="59"/>
       <c r="U62" s="60"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="15">
       <c r="A63" s="59"/>
       <c r="B63" s="59"/>
       <c r="C63" s="59"/>
@@ -2854,7 +2935,7 @@
       <c r="T63" s="59"/>
       <c r="U63" s="60"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="15">
       <c r="A64" s="59"/>
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
@@ -2877,7 +2958,7 @@
       <c r="T64" s="59"/>
       <c r="U64" s="60"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="15">
       <c r="A65" s="59"/>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -2900,7 +2981,7 @@
       <c r="T65" s="59"/>
       <c r="U65" s="60"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="15">
       <c r="A66" s="59"/>
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
@@ -2923,7 +3004,7 @@
       <c r="T66" s="59"/>
       <c r="U66" s="60"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="15">
       <c r="A67" s="59"/>
       <c r="B67" s="59"/>
       <c r="C67" s="59"/>
@@ -2946,7 +3027,7 @@
       <c r="T67" s="59"/>
       <c r="U67" s="60"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="15">
       <c r="A68" s="59"/>
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
@@ -2969,7 +3050,7 @@
       <c r="T68" s="59"/>
       <c r="U68" s="60"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="15">
       <c r="A69" s="59"/>
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
@@ -2992,7 +3073,7 @@
       <c r="T69" s="59"/>
       <c r="U69" s="60"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="15">
       <c r="A70" s="59"/>
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
@@ -3015,7 +3096,7 @@
       <c r="T70" s="59"/>
       <c r="U70" s="60"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="15">
       <c r="A71" s="59"/>
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
@@ -3038,7 +3119,7 @@
       <c r="T71" s="59"/>
       <c r="U71" s="60"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="15">
       <c r="A72" s="59"/>
       <c r="B72" s="59"/>
       <c r="C72" s="59"/>
@@ -3061,7 +3142,7 @@
       <c r="T72" s="59"/>
       <c r="U72" s="60"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="15">
       <c r="A73" s="59"/>
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
@@ -3084,7 +3165,7 @@
       <c r="T73" s="59"/>
       <c r="U73" s="60"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="15">
       <c r="A74" s="59"/>
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
@@ -3107,7 +3188,7 @@
       <c r="T74" s="59"/>
       <c r="U74" s="60"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21">
       <c r="A75" s="59"/>
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
@@ -3130,7 +3211,7 @@
       <c r="T75" s="59"/>
       <c r="U75" s="60"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="A76" s="59"/>
       <c r="B76" s="59"/>
       <c r="C76" s="59"/>
@@ -3153,7 +3234,7 @@
       <c r="T76" s="59"/>
       <c r="U76" s="60"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21">
       <c r="A77" s="59"/>
       <c r="B77" s="59"/>
       <c r="C77" s="59"/>
@@ -3176,7 +3257,7 @@
       <c r="T77" s="59"/>
       <c r="U77" s="60"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21">
       <c r="A78" s="59"/>
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
@@ -3199,7 +3280,7 @@
       <c r="T78" s="59"/>
       <c r="U78" s="60"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="A79" s="59"/>
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
@@ -3222,7 +3303,7 @@
       <c r="T79" s="59"/>
       <c r="U79" s="60"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="A80" s="59"/>
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
@@ -3245,7 +3326,7 @@
       <c r="T80" s="59"/>
       <c r="U80" s="60"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" s="59"/>
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
@@ -3268,7 +3349,7 @@
       <c r="T81" s="59"/>
       <c r="U81" s="60"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="59"/>
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
@@ -3291,7 +3372,7 @@
       <c r="T82" s="59"/>
       <c r="U82" s="60"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="59"/>
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
@@ -3314,7 +3395,7 @@
       <c r="T83" s="59"/>
       <c r="U83" s="60"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21">
       <c r="A84" s="59"/>
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
@@ -3337,7 +3418,7 @@
       <c r="T84" s="59"/>
       <c r="U84" s="60"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21">
       <c r="A85" s="59"/>
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
@@ -3360,7 +3441,7 @@
       <c r="T85" s="59"/>
       <c r="U85" s="60"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="59"/>
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
@@ -3383,7 +3464,7 @@
       <c r="T86" s="59"/>
       <c r="U86" s="60"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="59"/>
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
@@ -3406,7 +3487,7 @@
       <c r="T87" s="59"/>
       <c r="U87" s="60"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="59"/>
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
@@ -3429,7 +3510,7 @@
       <c r="T88" s="59"/>
       <c r="U88" s="60"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="59"/>
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
@@ -3452,7 +3533,7 @@
       <c r="T89" s="59"/>
       <c r="U89" s="60"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="59"/>
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
@@ -3475,7 +3556,7 @@
       <c r="T90" s="59"/>
       <c r="U90" s="60"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="59"/>
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
@@ -3498,7 +3579,7 @@
       <c r="T91" s="59"/>
       <c r="U91" s="60"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="59"/>
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
@@ -3521,7 +3602,7 @@
       <c r="T92" s="59"/>
       <c r="U92" s="60"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="59"/>
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
@@ -3544,7 +3625,7 @@
       <c r="T93" s="59"/>
       <c r="U93" s="60"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="59"/>
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
@@ -3567,7 +3648,7 @@
       <c r="T94" s="59"/>
       <c r="U94" s="60"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="59"/>
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
@@ -3590,7 +3671,7 @@
       <c r="T95" s="59"/>
       <c r="U95" s="60"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="59"/>
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
@@ -3613,7 +3694,7 @@
       <c r="T96" s="59"/>
       <c r="U96" s="60"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="59"/>
       <c r="B97" s="59"/>
       <c r="C97" s="59"/>
@@ -3636,7 +3717,7 @@
       <c r="T97" s="59"/>
       <c r="U97" s="60"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="59"/>
       <c r="B98" s="59"/>
       <c r="C98" s="59"/>
@@ -3659,7 +3740,7 @@
       <c r="T98" s="59"/>
       <c r="U98" s="60"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="59"/>
       <c r="B99" s="59"/>
       <c r="C99" s="59"/>
@@ -3682,7 +3763,7 @@
       <c r="T99" s="59"/>
       <c r="U99" s="60"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="59"/>
       <c r="B100" s="59"/>
       <c r="C100" s="59"/>
@@ -3705,7 +3786,7 @@
       <c r="T100" s="59"/>
       <c r="U100" s="60"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="59"/>
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
@@ -3728,7 +3809,7 @@
       <c r="T101" s="59"/>
       <c r="U101" s="60"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="59"/>
       <c r="B102" s="59"/>
       <c r="C102" s="59"/>
@@ -3751,7 +3832,7 @@
       <c r="T102" s="59"/>
       <c r="U102" s="60"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="59"/>
       <c r="B103" s="59"/>
       <c r="C103" s="59"/>
@@ -3774,7 +3855,7 @@
       <c r="T103" s="59"/>
       <c r="U103" s="60"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="59"/>
       <c r="B104" s="59"/>
       <c r="C104" s="59"/>
@@ -3797,7 +3878,7 @@
       <c r="T104" s="59"/>
       <c r="U104" s="60"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="59"/>
       <c r="B105" s="59"/>
       <c r="C105" s="59"/>
@@ -3820,7 +3901,7 @@
       <c r="T105" s="59"/>
       <c r="U105" s="60"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="59"/>
       <c r="B106" s="59"/>
       <c r="C106" s="59"/>
@@ -3843,7 +3924,7 @@
       <c r="T106" s="59"/>
       <c r="U106" s="60"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="59"/>
       <c r="B107" s="59"/>
       <c r="C107" s="59"/>
@@ -3866,7 +3947,7 @@
       <c r="T107" s="59"/>
       <c r="U107" s="60"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="59"/>
       <c r="B108" s="59"/>
       <c r="C108" s="59"/>
@@ -3889,7 +3970,7 @@
       <c r="T108" s="59"/>
       <c r="U108" s="60"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="59"/>
       <c r="B109" s="59"/>
       <c r="C109" s="59"/>
@@ -3912,7 +3993,7 @@
       <c r="T109" s="59"/>
       <c r="U109" s="60"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="59"/>
       <c r="B110" s="59"/>
       <c r="C110" s="59"/>
@@ -3935,7 +4016,7 @@
       <c r="T110" s="59"/>
       <c r="U110" s="60"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="59"/>
       <c r="B111" s="59"/>
       <c r="C111" s="59"/>
@@ -3958,7 +4039,7 @@
       <c r="T111" s="59"/>
       <c r="U111" s="60"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="59"/>
       <c r="B112" s="59"/>
       <c r="C112" s="59"/>
@@ -3981,7 +4062,7 @@
       <c r="T112" s="59"/>
       <c r="U112" s="60"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="59"/>
       <c r="B113" s="59"/>
       <c r="C113" s="59"/>
@@ -4004,7 +4085,7 @@
       <c r="T113" s="59"/>
       <c r="U113" s="60"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="59"/>
       <c r="B114" s="59"/>
       <c r="C114" s="59"/>
@@ -4027,7 +4108,7 @@
       <c r="T114" s="59"/>
       <c r="U114" s="60"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="59"/>
       <c r="B115" s="59"/>
       <c r="C115" s="59"/>
@@ -4050,7 +4131,7 @@
       <c r="T115" s="59"/>
       <c r="U115" s="60"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="59"/>
       <c r="B116" s="59"/>
       <c r="C116" s="59"/>
@@ -4073,7 +4154,7 @@
       <c r="T116" s="59"/>
       <c r="U116" s="60"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="59"/>
       <c r="B117" s="59"/>
       <c r="C117" s="59"/>
@@ -4096,7 +4177,7 @@
       <c r="T117" s="59"/>
       <c r="U117" s="60"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="59"/>
       <c r="B118" s="59"/>
       <c r="C118" s="59"/>
@@ -4119,7 +4200,7 @@
       <c r="T118" s="59"/>
       <c r="U118" s="60"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="59"/>
       <c r="B119" s="59"/>
       <c r="C119" s="59"/>
@@ -4142,7 +4223,7 @@
       <c r="T119" s="59"/>
       <c r="U119" s="60"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="59"/>
       <c r="B120" s="59"/>
       <c r="C120" s="59"/>
@@ -4165,7 +4246,7 @@
       <c r="T120" s="59"/>
       <c r="U120" s="60"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="59"/>
       <c r="B121" s="59"/>
       <c r="C121" s="59"/>
@@ -4188,7 +4269,7 @@
       <c r="T121" s="59"/>
       <c r="U121" s="60"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="59"/>
       <c r="B122" s="59"/>
       <c r="C122" s="59"/>
@@ -4211,7 +4292,7 @@
       <c r="T122" s="59"/>
       <c r="U122" s="60"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="59"/>
       <c r="B123" s="59"/>
       <c r="C123" s="59"/>
@@ -4234,7 +4315,7 @@
       <c r="T123" s="59"/>
       <c r="U123" s="60"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="59"/>
       <c r="B124" s="59"/>
       <c r="C124" s="59"/>
@@ -4257,7 +4338,7 @@
       <c r="T124" s="59"/>
       <c r="U124" s="60"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="59"/>
       <c r="B125" s="59"/>
       <c r="C125" s="59"/>
@@ -4280,7 +4361,7 @@
       <c r="T125" s="59"/>
       <c r="U125" s="60"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="59"/>
       <c r="B126" s="59"/>
       <c r="C126" s="59"/>
@@ -4303,7 +4384,7 @@
       <c r="T126" s="59"/>
       <c r="U126" s="60"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="59"/>
       <c r="B127" s="59"/>
       <c r="C127" s="59"/>
@@ -4326,7 +4407,7 @@
       <c r="T127" s="59"/>
       <c r="U127" s="60"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="59"/>
       <c r="B128" s="59"/>
       <c r="C128" s="59"/>
@@ -4349,7 +4430,7 @@
       <c r="T128" s="59"/>
       <c r="U128" s="60"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="59"/>
       <c r="B129" s="59"/>
       <c r="C129" s="59"/>
@@ -4372,7 +4453,7 @@
       <c r="T129" s="59"/>
       <c r="U129" s="60"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="59"/>
       <c r="B130" s="59"/>
       <c r="C130" s="59"/>
@@ -4395,7 +4476,7 @@
       <c r="T130" s="59"/>
       <c r="U130" s="60"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="59"/>
       <c r="B131" s="59"/>
       <c r="C131" s="59"/>
@@ -4418,7 +4499,7 @@
       <c r="T131" s="59"/>
       <c r="U131" s="60"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="59"/>
       <c r="B132" s="59"/>
       <c r="C132" s="59"/>
@@ -4441,7 +4522,7 @@
       <c r="T132" s="59"/>
       <c r="U132" s="60"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="59"/>
       <c r="B133" s="59"/>
       <c r="C133" s="59"/>
@@ -4464,7 +4545,7 @@
       <c r="T133" s="59"/>
       <c r="U133" s="60"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="59"/>
       <c r="B134" s="59"/>
       <c r="C134" s="59"/>
@@ -4487,7 +4568,7 @@
       <c r="T134" s="59"/>
       <c r="U134" s="60"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="59"/>
       <c r="B135" s="59"/>
       <c r="C135" s="59"/>
@@ -4507,7 +4588,7 @@
       <c r="Q135" s="60"/>
       <c r="U135" s="60"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="59"/>
       <c r="B136" s="59"/>
       <c r="C136" s="59"/>
@@ -4527,7 +4608,7 @@
       <c r="Q136" s="60"/>
       <c r="U136" s="60"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="59"/>
       <c r="B137" s="59"/>
       <c r="C137" s="59"/>
@@ -4547,7 +4628,7 @@
       <c r="Q137" s="60"/>
       <c r="U137" s="60"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="59"/>
       <c r="B138" s="59"/>
       <c r="C138" s="59"/>
@@ -4567,7 +4648,7 @@
       <c r="Q138" s="60"/>
       <c r="U138" s="60"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="59"/>
       <c r="B139" s="59"/>
       <c r="C139" s="59"/>
@@ -4587,7 +4668,7 @@
       <c r="Q139" s="60"/>
       <c r="U139" s="60"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="59"/>
       <c r="B140" s="59"/>
       <c r="C140" s="59"/>
@@ -4607,7 +4688,7 @@
       <c r="Q140" s="60"/>
       <c r="U140" s="60"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="59"/>
       <c r="B141" s="59"/>
       <c r="C141" s="59"/>
@@ -4627,7 +4708,7 @@
       <c r="Q141" s="60"/>
       <c r="U141" s="60"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="59"/>
       <c r="B142" s="59"/>
       <c r="C142" s="59"/>
@@ -4647,7 +4728,7 @@
       <c r="Q142" s="60"/>
       <c r="U142" s="60"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="59"/>
       <c r="B143" s="59"/>
       <c r="C143" s="59"/>
@@ -4667,7 +4748,7 @@
       <c r="Q143" s="60"/>
       <c r="U143" s="60"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="59"/>
       <c r="B144" s="59"/>
       <c r="C144" s="59"/>
@@ -4687,7 +4768,7 @@
       <c r="Q144" s="60"/>
       <c r="U144" s="60"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="59"/>
       <c r="B145" s="59"/>
       <c r="C145" s="59"/>
@@ -4707,7 +4788,7 @@
       <c r="Q145" s="60"/>
       <c r="U145" s="60"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="59"/>
       <c r="B146" s="59"/>
       <c r="C146" s="59"/>
@@ -4727,7 +4808,7 @@
       <c r="Q146" s="60"/>
       <c r="U146" s="60"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="59"/>
       <c r="B147" s="59"/>
       <c r="C147" s="59"/>
@@ -4747,7 +4828,7 @@
       <c r="Q147" s="60"/>
       <c r="U147" s="60"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="59"/>
       <c r="B148" s="59"/>
       <c r="C148" s="59"/>
@@ -4767,7 +4848,7 @@
       <c r="Q148" s="60"/>
       <c r="U148" s="60"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="59"/>
       <c r="B149" s="59"/>
       <c r="C149" s="59"/>
@@ -4787,7 +4868,7 @@
       <c r="Q149" s="60"/>
       <c r="U149" s="60"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="59"/>
       <c r="B150" s="59"/>
       <c r="C150" s="59"/>
@@ -4807,7 +4888,7 @@
       <c r="Q150" s="60"/>
       <c r="U150" s="60"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="59"/>
       <c r="B151" s="59"/>
       <c r="C151" s="59"/>
@@ -4827,7 +4908,7 @@
       <c r="Q151" s="60"/>
       <c r="U151" s="60"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="59"/>
       <c r="B152" s="59"/>
       <c r="C152" s="59"/>
@@ -4847,7 +4928,7 @@
       <c r="Q152" s="60"/>
       <c r="U152" s="60"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="59"/>
       <c r="B153" s="59"/>
       <c r="C153" s="59"/>
@@ -4867,7 +4948,7 @@
       <c r="Q153" s="60"/>
       <c r="U153" s="60"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="59"/>
       <c r="B154" s="59"/>
       <c r="C154" s="59"/>
@@ -4887,7 +4968,7 @@
       <c r="Q154" s="60"/>
       <c r="U154" s="60"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="59"/>
       <c r="B155" s="59"/>
       <c r="C155" s="59"/>
@@ -4907,7 +4988,7 @@
       <c r="Q155" s="60"/>
       <c r="U155" s="60"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="59"/>
       <c r="B156" s="59"/>
       <c r="C156" s="59"/>
@@ -4927,7 +5008,7 @@
       <c r="Q156" s="60"/>
       <c r="U156" s="60"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="59"/>
       <c r="B157" s="59"/>
       <c r="C157" s="59"/>
@@ -4947,7 +5028,7 @@
       <c r="Q157" s="60"/>
       <c r="U157" s="60"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="59"/>
       <c r="B158" s="59"/>
       <c r="C158" s="59"/>
@@ -4967,7 +5048,7 @@
       <c r="Q158" s="60"/>
       <c r="U158" s="60"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="59"/>
       <c r="B159" s="59"/>
       <c r="C159" s="59"/>
@@ -4987,7 +5068,7 @@
       <c r="Q159" s="60"/>
       <c r="U159" s="60"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="59"/>
       <c r="B160" s="59"/>
       <c r="C160" s="59"/>
@@ -5007,7 +5088,7 @@
       <c r="Q160" s="60"/>
       <c r="U160" s="60"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="59"/>
       <c r="B161" s="59"/>
       <c r="C161" s="59"/>
@@ -5027,7 +5108,7 @@
       <c r="Q161" s="60"/>
       <c r="U161" s="60"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="59"/>
       <c r="B162" s="59"/>
       <c r="C162" s="59"/>
@@ -5047,7 +5128,7 @@
       <c r="Q162" s="60"/>
       <c r="U162" s="60"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="59"/>
       <c r="B163" s="59"/>
       <c r="C163" s="59"/>
@@ -5067,7 +5148,7 @@
       <c r="Q163" s="60"/>
       <c r="U163" s="60"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="59"/>
       <c r="B164" s="59"/>
       <c r="C164" s="59"/>
@@ -5087,7 +5168,7 @@
       <c r="Q164" s="60"/>
       <c r="U164" s="60"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="59"/>
       <c r="B165" s="59"/>
       <c r="C165" s="59"/>
@@ -5107,7 +5188,7 @@
       <c r="Q165" s="60"/>
       <c r="U165" s="60"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="59"/>
       <c r="B166" s="59"/>
       <c r="C166" s="59"/>
@@ -5127,7 +5208,7 @@
       <c r="Q166" s="60"/>
       <c r="U166" s="60"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="59"/>
       <c r="B167" s="59"/>
       <c r="C167" s="59"/>
@@ -5147,7 +5228,7 @@
       <c r="Q167" s="60"/>
       <c r="U167" s="60"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="59"/>
       <c r="B168" s="59"/>
       <c r="C168" s="59"/>
@@ -5167,7 +5248,7 @@
       <c r="Q168" s="60"/>
       <c r="U168" s="60"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21">
       <c r="A169" s="59"/>
       <c r="B169" s="59"/>
       <c r="C169" s="59"/>
@@ -5214,6 +5295,11 @@
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5225,27 +5311,27 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="44.375" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.875" customWidth="1"/>
-    <col min="14" max="14" width="11.375" customWidth="1"/>
-    <col min="15" max="15" width="89.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" customWidth="1"/>
+    <col min="15" max="15" width="89.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
@@ -5301,7 +5387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5321,7 +5407,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5341,7 +5427,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5364,6 +5450,11 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5375,20 +5466,20 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="81" t="s">
         <v>38</v>
       </c>
@@ -5403,7 +5494,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="18" t="s">
         <v>39</v>
       </c>
@@ -5438,7 +5529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="83"/>
       <c r="B3" s="83"/>
       <c r="C3" s="20"/>
@@ -5451,7 +5542,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="84"/>
       <c r="B4" s="85"/>
       <c r="C4" s="20"/>
@@ -5464,7 +5555,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="83"/>
       <c r="B5" s="83"/>
       <c r="C5" s="20"/>
@@ -5477,7 +5568,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
       <c r="C6" s="20"/>
@@ -5490,7 +5581,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="85"/>
       <c r="B7" s="85"/>
       <c r="C7" s="20"/>
@@ -5503,7 +5594,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="85"/>
       <c r="B8" s="85"/>
       <c r="C8" s="20"/>
@@ -5516,7 +5607,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="85"/>
       <c r="B9" s="85"/>
       <c r="C9" s="20"/>
@@ -5529,7 +5620,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="20"/>
@@ -5542,7 +5633,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5565,6 +5656,11 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5576,22 +5672,22 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="86" t="s">
         <v>49</v>
       </c>
@@ -5608,7 +5704,7 @@
       <c r="L1" s="86"/>
       <c r="M1" s="87"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -5623,7 +5719,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="89"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -5664,7 +5760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5679,7 +5775,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5694,7 +5790,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5709,7 +5805,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5724,7 +5820,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5739,7 +5835,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5754,7 +5850,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5769,7 +5865,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5784,7 +5880,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5799,7 +5895,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5814,7 +5910,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5829,7 +5925,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5844,7 +5940,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5879,6 +5975,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5890,22 +5991,22 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="86" t="s">
         <v>49</v>
       </c>
@@ -5922,7 +6023,7 @@
       <c r="L1" s="86"/>
       <c r="M1" s="87"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -5937,7 +6038,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="89"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -5978,7 +6079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5993,7 +6094,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6008,7 +6109,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6023,7 +6124,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6038,7 +6139,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6053,7 +6154,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6068,7 +6169,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6083,7 +6184,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6098,7 +6199,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6113,7 +6214,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6128,7 +6229,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6143,7 +6244,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6158,7 +6259,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6193,6 +6294,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6204,22 +6310,22 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="86" t="s">
         <v>49</v>
       </c>
@@ -6236,7 +6342,7 @@
       <c r="L1" s="86"/>
       <c r="M1" s="87"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -6251,7 +6357,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="89"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -6292,7 +6398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6307,7 +6413,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6322,7 +6428,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6337,7 +6443,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6352,7 +6458,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6367,7 +6473,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6382,7 +6488,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6397,7 +6503,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6412,7 +6518,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6427,7 +6533,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6442,7 +6548,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6457,7 +6563,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6472,7 +6578,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6507,6 +6613,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6518,24 +6629,24 @@
       <selection activeCell="E20" activeCellId="1" sqref="G29 E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="86" t="s">
         <v>49</v>
       </c>
@@ -6552,7 +6663,7 @@
       <c r="L1" s="86"/>
       <c r="M1" s="87"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="88"/>
       <c r="B2" s="88"/>
       <c r="C2" s="88"/>
@@ -6567,7 +6678,7 @@
       <c r="L2" s="88"/>
       <c r="M2" s="89"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -6608,7 +6719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6623,7 +6734,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6638,7 +6749,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6653,7 +6764,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6668,7 +6779,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6683,7 +6794,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6698,7 +6809,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6713,7 +6824,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6728,7 +6839,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6743,7 +6854,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6758,7 +6869,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6773,7 +6884,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6788,7 +6899,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6823,6 +6934,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6834,18 +6950,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -6871,7 +6987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6881,7 +6997,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6891,7 +7007,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6901,7 +7017,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6911,7 +7027,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6921,7 +7037,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6931,7 +7047,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6941,7 +7057,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6951,7 +7067,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6961,7 +7077,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6971,7 +7087,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6981,7 +7097,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6991,7 +7107,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7001,7 +7117,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7011,7 +7127,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7021,7 +7137,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7031,7 +7147,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7041,7 +7157,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -7059,5 +7175,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>